--- a/data/trans_dic/P1803-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1803-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,17 +661,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21,28%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>4,69; 10,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>11,19; 19,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 16,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 25,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 12,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 21,14</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 3,74</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 9,2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 4,65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 11,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 3,55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 9,43</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,62</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,39</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 14,56</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,57</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 4,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 15,44</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 3,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 13,69</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,02; 10,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,67; 15,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,31</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 10,09</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 14,36</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 9,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 13,66</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 4,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 8,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,9</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,39</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 7,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 5,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 4,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 5,7</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>4,58; 11,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,68; 12,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0; 0,71</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 7,41</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 17,23</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 8,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 13,44</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>3,54; 7,21</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 16,64</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,31</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,3</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 7,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 16,24</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,16</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 6,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 15,19</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1646,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1187,6 +1662,36 @@
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1709,57 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 5,57</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 26,81</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,25</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 8,47</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 3,32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,13</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 6,66</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 15,78</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1267,6 +1802,36 @@
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1854,52 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>3,9; 5,33</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 14,53</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 6,29</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 10,48</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 5,64</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 11,79</t>
         </is>
       </c>
     </row>
@@ -1318,16 +1913,16 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P1803-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,7%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 19,18</t>
+          <t>10,57; 18,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 25,58</t>
+          <t>17,82; 25,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,14</t>
+          <t>14,82; 20,75</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,2</t>
+          <t>3,68; 9,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,28</t>
+          <t>6,41; 11,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,43</t>
+          <t>5,59; 9,46</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,56</t>
+          <t>7,65; 14,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 15,44</t>
+          <t>9,34; 15,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,69</t>
+          <t>9,21; 13,67</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,81</t>
+          <t>7,53; 15,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,36</t>
+          <t>5,43; 12,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,66</t>
+          <t>6,92; 12,38</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 8,46</t>
+          <t>1,74; 8,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,48</t>
+          <t>1,65; 5,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,7</t>
+          <t>2,2; 5,54</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,0%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,36</t>
+          <t>5,67; 12,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 17,23</t>
+          <t>10,37; 17,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,83; 13,44</t>
+          <t>8,68; 13,33</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>12,1%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,51; 16,64</t>
+          <t>10,39; 16,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 16,24</t>
+          <t>5,46; 15,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 15,19</t>
+          <t>7,5; 14,68</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>16,82%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 26,81</t>
+          <t>1,89; 65,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,32</t>
+          <t>1,59; 3,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 15,78</t>
+          <t>2,04; 48,28</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>12,08%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,53</t>
+          <t>8,04; 34,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,48</t>
+          <t>7,72; 10,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,79</t>
+          <t>8,69; 21,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1803-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,91</t>
+          <t>4,97; 11,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,74</t>
+          <t>10,34; 19,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 16,04</t>
+          <t>8,02; 15,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 25,96</t>
+          <t>17,61; 25,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,19 +775,19 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,37</t>
+          <t>7,27; 12,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,82; 20,75</t>
+          <t>15,05; 20,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,74</t>
+          <t>0,9; 3,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,51</t>
+          <t>3,64; 9,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,65</t>
+          <t>1,45; 4,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,29</t>
+          <t>6,24; 11,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,19 +915,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,55</t>
+          <t>1,48; 3,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,46</t>
+          <t>5,47; 9,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,39</t>
+          <t>0,57; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 14,67</t>
+          <t>7,57; 14,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,15</t>
+          <t>0,91; 4,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 15,47</t>
+          <t>9,08; 15,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,35</t>
+          <t>1,02; 3,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 13,67</t>
+          <t>9,39; 13,8</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,96</t>
+          <t>5,17; 11,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,52</t>
+          <t>7,5; 16,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,09</t>
+          <t>4,45; 9,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,41</t>
+          <t>5,21; 12,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,26</t>
+          <t>5,46; 9,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,38</t>
+          <t>7,12; 12,64</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,46</t>
+          <t>0,83; 4,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,11</t>
+          <t>1,72; 8,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,43</t>
+          <t>1,86; 7,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,37</t>
+          <t>1,71; 5,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,19 +1335,19 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,88</t>
+          <t>1,65; 5,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,54</t>
+          <t>2,15; 5,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 11,05</t>
+          <t>4,76; 12,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,67; 12,36</t>
+          <t>5,84; 12,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,41</t>
+          <t>2,25; 7,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 17,11</t>
+          <t>10,3; 16,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,4</t>
+          <t>4,16; 8,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,33</t>
+          <t>8,94; 13,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,21</t>
+          <t>3,47; 7,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 16,65</t>
+          <t>10,32; 16,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,83</t>
+          <t>4,0; 7,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 15,94</t>
+          <t>6,14; 15,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 6,88</t>
+          <t>4,19; 6,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 14,68</t>
+          <t>7,63; 14,78</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,57</t>
+          <t>2,63; 5,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 65,52</t>
+          <t>1,88; 68,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,47</t>
+          <t>5,06; 8,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,35</t>
+          <t>1,54; 3,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,66</t>
+          <t>4,32; 6,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 48,28</t>
+          <t>2,09; 48,34</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1855,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,33</t>
+          <t>3,93; 5,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,04; 34,04</t>
+          <t>8,0; 34,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,12 +1875,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,29</t>
+          <t>4,68; 6,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,46</t>
+          <t>7,39; 10,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1894,12 +1895,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,64</t>
+          <t>4,53; 5,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,69; 21,74</t>
+          <t>8,72; 23,43</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Poblaciónque en los últimos 12 meses han visitado un fisioterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22436</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44551</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33319</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>61844</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>55755</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>106395</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14600; 34006</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32203; 59496</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23157; 44057</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>51004; 75112</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2073</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42336; 71358</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>90489; 125481</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10571</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30831</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14012</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43193</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24583</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>74024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4521; 19120</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18888; 47308</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1935</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7577; 23718</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32079; 57302</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15219; 34472</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56414; 95988</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5258</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33383</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42408</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12348</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75792</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1815; 11898</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23936; 45129</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2058</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3045; 14342</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31661; 52799</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6695; 21993</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62445; 91733</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28204</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34221</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26570</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43413</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54773</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>77634</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2081</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19136; 40713</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23444; 50484</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17220; 37796</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24797; 57967</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>41368; 70922</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56107; 99615</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4534</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7348</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8337</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12871</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13497</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1755; 9886</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3071; 14801</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1978</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4075; 16086</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3560; 11267</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7088; 22049</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8320; 20860</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19912</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23192</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12077</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>34748</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31988</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>57940</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12519; 32838</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15744; 32796</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6136; 20118</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26465; 43342</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22315; 45791</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>47078; 71151</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>33865</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>80839</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>39003</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>97396</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>72868</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>178234</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22812; 48035</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>64418; 104236</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27626; 53500</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>52186; 134602</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>56482; 92588</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>112409; 217822</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>30725</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>260140</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>55300</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>16741</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>86025</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>276882</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>20439; 43077</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>17435; 635342</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>41841; 72208</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>11035; 24406</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>69371; 105047</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>34393; 795822</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>155505</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>514507</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>195706</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>345891</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>351211</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>860399</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>133335; 183565</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>276931; 1179894</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>165924; 220710</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>270487; 381738</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>314203; 391236</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>621074; 1668026</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>